--- a/biology/Médecine/Col_fémoral/Col_fémoral.xlsx
+++ b/biology/Médecine/Col_fémoral/Col_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Col_f%C3%A9moral</t>
+          <t>Col_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le col fémoral (ou col du fémur) est un processus osseux grossièrement cylindrique qui relie la tête fémorale au corps du fémur..
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Col_f%C3%A9moral</t>
+          <t>Col_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le col fémoral est situé entre la tête fémorale et le massif osseux formé par les trochanters.
 Il se présente comme un cylindre aplati d'avant en arrière d'environ 40 mm de long. Il est plus étroit au milieu et plus large dans sa partie latérale que dans sa partie médiale.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Col_f%C3%A9moral</t>
+          <t>Col_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,14 +566,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fracture
-Les fractures du col du fémur englobent les fractures du col lui-même et les fractures du massif trochantérien.
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fractures du col du fémur englobent les fractures du col lui-même et les fractures du massif trochantérien.
 C'est une fracture courante (60 000 par an en France). Elle touche souvent les personnes âgées atteint d'ostéoporose. Sans affaiblissement dû à l'ostéoporose, elle peut survenir lors de traumatismes importants (accidents de la route, chutes de hauteur ou sportives
 Une fracture du col fémoral est classée comme un type de fracture de la hanche. Elle est souvent due à l'ostéoporose ; dans la grande majorité des cas, une fracture de la hanche est une fracture de fragilité due à une chute ou à un traumatisme mineur chez une personne dont l'os ostéoporotique est affaibli. La plupart des fractures de la hanche chez les personnes ayant des os normaux sont le résultat de traumatismes à haute énergie tels que des accidents de voiture, des chutes de hauteur ou des blessures sportives).
 Elles sont classifiées selon la classification de Garden.
 Selon le type le traitement chirurgical va de la fixation de la fracture avec un système vis et plaque (type I ou II) jusqu'à une prothèse totale de hanche.
-Angle d'inclinaison du col fémoral
-L'angle d'inclinaison de la tête fémorale est sujet à des variations liées au sexe et à la taille du fémur et du bassin osseux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Col_fémoral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Col_f%C3%A9moral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angle d'inclinaison du col fémoral</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angle d'inclinaison de la tête fémorale est sujet à des variations liées au sexe et à la taille du fémur et du bassin osseux.
 Pour la femme, par suite de l'augmentation de la largeur du bassin, le col du fémur forme un angle plus petit que chez l'homme.
 Il est également plus petit pour un fémur court et un bassin large.
 Si l'angle est trop petit (inférieur à 120°) cela peut entraîner une déformation invalidante (coxa vara). Cette déformation peut être isolée ou associée à une hypoplasie fémorale.
